--- a/web_ces/indicadores/ARG-CAME_out.xlsx
+++ b/web_ces/indicadores/ARG-CAME_out.xlsx
@@ -13680,13 +13680,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D814D49D-DBDB-4D19-9B97-BB75603D6961}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2876B2DA-494D-4B1A-8E67-5D5B145D7957}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A78416-70CA-4A76-9F3C-BD15E53D008D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63046971-5FB7-41A0-A881-DE6B1697A3A6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C78BE888-41FE-47CA-8957-74AD3490142B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C5135E-DB29-494A-9B72-975D454D52CF}"/>
 </file>